--- a/xlsx/country_comparison/foreign_aid_more_positive.xlsx
+++ b/xlsx/country_comparison/foreign_aid_more_positive.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -27,9 +33,6 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">Preferred foreign aid is higher than current</t>
@@ -389,61 +392,73 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.749645016270873</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B2"/>
       <c r="C2" t="n">
-        <v>0.586593562593609</v>
+        <v>0.583443944030363</v>
       </c>
       <c r="D2" t="n">
-        <v>0.641535775870434</v>
+        <v>0.763615993755324</v>
       </c>
       <c r="E2" t="n">
-        <v>0.383944755701105</v>
-      </c>
-      <c r="F2"/>
+        <v>0.565058736502848</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.625935065691632</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.45915775281757</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.61254428469078</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B3"/>
       <c r="C3" t="n">
-        <v>0.614173438735866</v>
+        <v>0.531554053118514</v>
       </c>
       <c r="D3" t="n">
-        <v>0.533634360745338</v>
+        <v>0.640342702324481</v>
       </c>
       <c r="E3" t="n">
-        <v>0.344095062780298</v>
-      </c>
-      <c r="F3"/>
+        <v>0.5979510741487</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.53420090022397</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.358188651820109</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6224526766782</v>
+        <v>0.588291214300699</v>
       </c>
       <c r="C4" t="n">
-        <v>0.681172492315443</v>
+        <v>0.62062568525634</v>
       </c>
       <c r="D4" t="n">
-        <v>0.712886742501885</v>
+        <v>0.635105090097805</v>
       </c>
       <c r="E4" t="n">
-        <v>0.472808316632176</v>
+        <v>0.664766252854912</v>
       </c>
       <c r="F4" t="n">
-        <v>0.588291214300699</v>
+        <v>0.697095923343685</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.5434431896239</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/foreign_aid_more_positive.xlsx
+++ b/xlsx/country_comparison/foreign_aid_more_positive.xlsx
@@ -400,42 +400,46 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="n">
+        <v>0.411602094599074</v>
+      </c>
       <c r="C2" t="n">
-        <v>0.583443944030363</v>
+        <v>0.589837119485913</v>
       </c>
       <c r="D2" t="n">
-        <v>0.763615993755324</v>
+        <v>0.753920608842609</v>
       </c>
       <c r="E2" t="n">
-        <v>0.565058736502848</v>
+        <v>0.576461037322966</v>
       </c>
       <c r="F2" t="n">
-        <v>0.625935065691632</v>
+        <v>0.62526790907398</v>
       </c>
       <c r="G2" t="n">
-        <v>0.45915775281757</v>
+        <v>0.426622250399556</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="n">
+        <v>0.341094135940619</v>
+      </c>
       <c r="C3" t="n">
-        <v>0.531554053118514</v>
+        <v>0.533701101345921</v>
       </c>
       <c r="D3" t="n">
-        <v>0.640342702324481</v>
+        <v>0.636414779134716</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5979510741487</v>
+        <v>0.587651067741646</v>
       </c>
       <c r="F3" t="n">
-        <v>0.53420090022397</v>
+        <v>0.537247023957455</v>
       </c>
       <c r="G3" t="n">
-        <v>0.358188651820109</v>
+        <v>0.393330839363339</v>
       </c>
     </row>
     <row r="4">
@@ -443,22 +447,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.588291214300699</v>
+        <v>0.598187012564733</v>
       </c>
       <c r="C4" t="n">
-        <v>0.62062568525634</v>
+        <v>0.636739028674537</v>
       </c>
       <c r="D4" t="n">
-        <v>0.635105090097805</v>
+        <v>0.627588384954585</v>
       </c>
       <c r="E4" t="n">
-        <v>0.664766252854912</v>
+        <v>0.676807601959896</v>
       </c>
       <c r="F4" t="n">
-        <v>0.697095923343685</v>
+        <v>0.691059073949057</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5434431896239</v>
+        <v>0.560844998477962</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/foreign_aid_more_positive.xlsx
+++ b/xlsx/country_comparison/foreign_aid_more_positive.xlsx
@@ -401,7 +401,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.411602094599074</v>
+        <v>0.474793644184466</v>
       </c>
       <c r="C2" t="n">
         <v>0.589837119485913</v>
@@ -424,7 +424,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.341094135940619</v>
+        <v>0.365019334499854</v>
       </c>
       <c r="C3" t="n">
         <v>0.533701101345921</v>
@@ -447,7 +447,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.598187012564733</v>
+        <v>0.35891220753884</v>
       </c>
       <c r="C4" t="n">
         <v>0.636739028674537</v>

--- a/xlsx/country_comparison/foreign_aid_more_positive.xlsx
+++ b/xlsx/country_comparison/foreign_aid_more_positive.xlsx
@@ -447,7 +447,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.35891220753884</v>
+        <v>0.598187012564733</v>
       </c>
       <c r="C4" t="n">
         <v>0.636739028674537</v>
